--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4008.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4008.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.471909279697265</v>
+        <v>4.094883918762207</v>
       </c>
       <c r="B1">
-        <v>2.522338935025784</v>
+        <v>4.978244304656982</v>
       </c>
       <c r="C1">
-        <v>3.124069163130199</v>
+        <v>6.698893070220947</v>
       </c>
       <c r="D1">
-        <v>3.623594476478768</v>
+        <v>8.912601470947266</v>
       </c>
       <c r="E1">
-        <v>2.048060699955792</v>
+        <v>5.956182479858398</v>
       </c>
     </row>
   </sheetData>
